--- a/rhla_analysis/rhla1_3_zipf_result/k10.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k10.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2105919079578298</v>
+        <v>0.2105919079578271</v>
       </c>
       <c r="B2" t="n">
         <v>15.68866441551211</v>
@@ -466,12 +466,12 @@
         <v>0.09420289855072464</v>
       </c>
       <c r="D2" t="n">
-        <v>74.49794518530929</v>
+        <v>74.49794518531024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2021039156408007</v>
+        <v>0.2021039156407991</v>
       </c>
       <c r="B3" t="n">
         <v>27.91675367239667</v>
@@ -480,26 +480,26 @@
         <v>0.0907928388746803</v>
       </c>
       <c r="D3" t="n">
-        <v>138.1306917477696</v>
+        <v>138.1306917477707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3729971593159641</v>
+        <v>0.3729971593159615</v>
       </c>
       <c r="B4" t="n">
-        <v>52.41364497299928</v>
+        <v>52.41364497299929</v>
       </c>
       <c r="C4" t="n">
         <v>0.0937766410912191</v>
       </c>
       <c r="D4" t="n">
-        <v>140.5202255939969</v>
+        <v>140.5202255939979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.181976516402941</v>
+        <v>2.181976516402927</v>
       </c>
       <c r="B5" t="n">
         <v>274.3265514882509</v>
@@ -508,12 +508,12 @@
         <v>0.08780903665814152</v>
       </c>
       <c r="D5" t="n">
-        <v>125.7238789812858</v>
+        <v>125.7238789812866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.09353731234625727</v>
+        <v>0.09353731234625831</v>
       </c>
       <c r="B6" t="n">
         <v>14.90496951490469</v>
@@ -522,12 +522,12 @@
         <v>0.08610400682011936</v>
       </c>
       <c r="D6" t="n">
-        <v>159.3478489068548</v>
+        <v>159.347848906853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2071414411024902</v>
+        <v>0.2071414411024892</v>
       </c>
       <c r="B7" t="n">
         <v>29.16267888600047</v>
@@ -536,26 +536,26 @@
         <v>0.08994032395566923</v>
       </c>
       <c r="D7" t="n">
-        <v>140.7863087694328</v>
+        <v>140.7863087694335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.094208053890154</v>
+        <v>2.094208053890147</v>
       </c>
       <c r="B8" t="n">
-        <v>135.7378280069929</v>
+        <v>135.737828006993</v>
       </c>
       <c r="C8" t="n">
         <v>0.09548167092924126</v>
       </c>
       <c r="D8" t="n">
-        <v>64.81582751763818</v>
+        <v>64.81582751763841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3674361682454232</v>
+        <v>0.3674361682454247</v>
       </c>
       <c r="B9" t="n">
         <v>32.51832599378459</v>
@@ -564,12 +564,12 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="D9" t="n">
-        <v>88.50061263447664</v>
+        <v>88.50061263447627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.436337629500787</v>
+        <v>1.436337629500784</v>
       </c>
       <c r="B10" t="n">
         <v>201.3529275779453</v>
@@ -578,12 +578,12 @@
         <v>0.08567774936061381</v>
       </c>
       <c r="D10" t="n">
-        <v>140.1849561289621</v>
+        <v>140.1849561289624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.56959766270759</v>
+        <v>1.569597662707595</v>
       </c>
       <c r="B11" t="n">
         <v>123.4898307114396</v>
@@ -592,7 +592,7 @@
         <v>0.09164535379369139</v>
       </c>
       <c r="D11" t="n">
-        <v>78.67610512264461</v>
+        <v>78.67610512264434</v>
       </c>
     </row>
   </sheetData>
